--- a/f_kaigai.xlsx
+++ b/f_kaigai.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/narawanozomi/Documents/4pro/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DA6534-C8E4-564C-A4AA-03B16C889868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1F4A4F-D4C3-A64E-9F79-306E01DE5C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="207">
   <si>
     <t>問題</t>
   </si>
@@ -414,28 +414,6 @@
   </si>
   <si>
     <t>旅行先で急な緊急事態が発生した場合、大学生が取るべき行動はどれか？</t>
-  </si>
-  <si>
-    <t>海外旅行中に気をつけるべきことは？
-A) 現地の言葉を覚える
-B) 地元の食べ物を避ける
-C) 夜遅くまで外出しない</t>
-  </si>
-  <si>
-    <t xml:space="preserve">回答: C) 夜遅くまで外出しない
-</t>
-  </si>
-  <si>
-    <t>A) 現地の言葉を覚える</t>
-  </si>
-  <si>
-    <t>B) 地元の食べ物を避ける</t>
-  </si>
-  <si>
-    <t>C) 夜遅くまで外出しない</t>
-  </si>
-  <si>
-    <t>海外旅行中に気をつけるべきことは？</t>
   </si>
   <si>
     <t>テロに遭遇した場合、どのような行動が重要ですか？
@@ -1102,10 +1080,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G996"/>
+  <dimension ref="A1:G995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -1212,22 +1190,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
@@ -1235,22 +1213,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
@@ -1258,22 +1236,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>146</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
@@ -1442,22 +1420,22 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
@@ -1511,22 +1489,22 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>106</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1">
@@ -1539,13 +1517,13 @@
       <c r="C19" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G19" s="3" t="s">
@@ -1580,22 +1558,22 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>123</v>
+        <v>196</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>124</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
@@ -1608,13 +1586,13 @@
       <c r="C22" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>129</v>
       </c>
       <c r="G22" s="3" t="s">
@@ -1649,22 +1627,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
@@ -1672,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>148</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1">
@@ -1701,16 +1679,16 @@
         <v>150</v>
       </c>
       <c r="D26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
@@ -1718,22 +1696,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1">
@@ -1741,22 +1719,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>68</v>
+        <v>203</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1">
@@ -1856,22 +1834,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>189</v>
+        <v>24</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>193</v>
+        <v>28</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>194</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1">
@@ -1879,22 +1857,22 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>195</v>
+        <v>83</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>198</v>
+        <v>86</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>199</v>
+        <v>87</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>200</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
@@ -1902,59 +1880,28 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>201</v>
+        <v>119</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>205</v>
+        <v>120</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A36" s="3">
-        <v>34</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+        <v>124</v>
+      </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" customHeight="1">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-    </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -5778,10 +5725,6 @@
     <row r="995" spans="2:3" ht="15.75" customHeight="1">
       <c r="B995" s="5"/>
       <c r="C995" s="5"/>
-    </row>
-    <row r="996" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B996" s="5"/>
-      <c r="C996" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
